--- a/biology/Botanique/Sansevieria_phillipsiae/Sansevieria_phillipsiae.xlsx
+++ b/biology/Botanique/Sansevieria_phillipsiae/Sansevieria_phillipsiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria phillipsiae, également appelée Dracaena phillipsiae[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria phillipsiae, également appelée Dracaena phillipsiae, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria phillipsiae est une espèce de sansevières à tige d'environ 10 cm sur laquelle poussent des feuilles pratiquement cylindriques, de taille moyenne (de 10 à 45 cm avec un diamètre 1 à 1,8 cm), cannelées, de couleur verte striées de bandes vertes plus claires[2]. 
-Elle a été identifiée comme espèce à part entière en 1913 par le botaniste britannique Nicholas Edward Brown[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria phillipsiae est une espèce de sansevières à tige d'environ 10 cm sur laquelle poussent des feuilles pratiquement cylindriques, de taille moyenne (de 10 à 45 cm avec un diamètre 1 à 1,8 cm), cannelées, de couleur verte striées de bandes vertes plus claires. 
+Elle a été identifiée comme espèce à part entière en 1913 par le botaniste britannique Nicholas Edward Brown.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire de l'Afrique de l'Est, présente dans toute la Corne de l'Afrique en Éthiopie et en Somalie[4],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire de l'Afrique de l'Est, présente dans toute la Corne de l'Afrique en Éthiopie et en Somalie,.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Synonymes et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente des synonymes[5] :
-Sansevieria hargeisana (Chahinian, 1994) – hétérotypique mais possiblement identique[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente des synonymes :
+Sansevieria hargeisana (Chahinian, 1994) – hétérotypique mais possiblement identique
 Dracaena phillipsiae (N.E Brown, 1913 ; Byng &amp; Christenh. 2018)</t>
         </is>
       </c>
